--- a/excel/solutions/WhatIf_Analysis.xlsx
+++ b/excel/solutions/WhatIf_Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilnair/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\ByteSize Trainings\curriculum\excel\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1766CD40-34F5-3D47-B30C-A88A51945368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A367B5DC-7A75-4638-922D-67DCC9CDE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="27240" windowHeight="15800" xr2:uid="{DCF2BA90-8090-C842-BBC3-829F9FAAF7DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23715" windowHeight="11040" activeTab="1" xr2:uid="{DCF2BA90-8090-C842-BBC3-829F9FAAF7DD}"/>
   </bookViews>
   <sheets>
     <sheet name="WhatIF" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Total Profit</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>LABOR COST</t>
+  </si>
+  <si>
+    <t>EXCHANGE RATE</t>
   </si>
 </sst>
 </file>
@@ -94,10 +100,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;AED&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -206,6 +227,8 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -214,6 +237,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,18 +560,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C501FF-2C94-514E-BED6-484DEF413240}">
   <dimension ref="C4:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -550,15 +579,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>100</v>
       </c>
       <c r="D5" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -567,40 +596,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4">
         <f>C5*(D5)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E8" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="4">
         <f>C5*(1-D5)</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="8">
         <f>(E8*D8)+(E9*D9)</f>
-        <v>3500</v>
+        <v>4250</v>
       </c>
     </row>
   </sheetData>
+  <scenarios current="2" show="2">
+    <scenario name="50%" locked="1" count="1" user="Microsoft Office User" comment="Created by Microsoft Office User on 22/02/2023">
+      <inputCells r="D5" val="0.5" numFmtId="9"/>
+    </scenario>
+    <scenario name="25%" locked="1" count="1" user="Microsoft Office User" comment="Created by Microsoft Office User on 22/02/2023">
+      <inputCells r="D5" val="0.25" numFmtId="9"/>
+    </scenario>
+    <scenario name="75%" locked="1" count="1" user="Microsoft Office User" comment="Created by Microsoft Office User on 22/02/2023">
+      <inputCells r="D5" val="0.75" numFmtId="9"/>
+    </scenario>
+  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -609,18 +649,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA0F70C-4053-344D-AA2A-7580AD961B0F}">
   <dimension ref="B5:K14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+    <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -629,57 +680,103 @@
       <c r="D6" s="1">
         <v>325.14999999999998</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="9">
+        <f>D11</f>
+        <v>7.711075000000001</v>
+      </c>
+      <c r="H6" s="10">
         <v>11</v>
       </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="10">
+        <v>11.65</v>
+      </c>
+      <c r="J6" s="10">
         <v>13</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="G7">
-        <v>9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
+      <c r="F7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="H7">
+        <f t="dataTable" ref="H7:K14" dt2D="1" dtr="1" r1="D8" r2="D7"/>
+        <v>8.3610749999999996</v>
+      </c>
+      <c r="I7">
+        <v>7.711075000000001</v>
+      </c>
+      <c r="J7">
+        <v>6.3610749999999996</v>
+      </c>
+      <c r="K7">
+        <v>5.3610749999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>11.65</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="15"/>
+      <c r="G8" s="10">
         <v>9.7000000000000003E-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+      <c r="H8">
+        <v>8.2960449999999994</v>
+      </c>
+      <c r="I8">
+        <v>7.6460450000000009</v>
+      </c>
+      <c r="J8">
+        <v>6.2960449999999994</v>
+      </c>
+      <c r="K8">
+        <v>5.2960449999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>17.55</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="15"/>
+      <c r="G9" s="10">
         <v>9.7999999999999997E-3</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+      <c r="H9">
+        <v>8.2635299999999994</v>
+      </c>
+      <c r="I9">
+        <v>7.6135299999999972</v>
+      </c>
+      <c r="J9">
+        <v>6.2635300000000029</v>
+      </c>
+      <c r="K9">
+        <v>5.2635300000000029</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -688,12 +785,25 @@
       <c r="D10" s="2">
         <v>40</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="15"/>
+      <c r="G10" s="10">
         <v>9.9000000000000008E-3</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="H10">
+        <v>8.2310149999999993</v>
+      </c>
+      <c r="I10">
+        <v>7.5810150000000007</v>
+      </c>
+      <c r="J10">
+        <v>6.2310149999999993</v>
+      </c>
+      <c r="K10">
+        <v>5.2310149999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
@@ -701,29 +811,83 @@
         <f>D10-((D6*D7)+D8+D9)</f>
         <v>7.711075000000001</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="15"/>
+      <c r="G11" s="10">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G12">
+      <c r="H11">
+        <v>8.1984999999999992</v>
+      </c>
+      <c r="I11">
+        <v>7.5484999999999971</v>
+      </c>
+      <c r="J11">
+        <v>6.1984999999999957</v>
+      </c>
+      <c r="K11">
+        <v>5.1984999999999957</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="15"/>
+      <c r="G12" s="10">
         <v>1.01E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G13">
+      <c r="H12">
+        <v>8.1659849999999992</v>
+      </c>
+      <c r="I12">
+        <v>7.5159850000000006</v>
+      </c>
+      <c r="J12">
+        <v>6.1659849999999992</v>
+      </c>
+      <c r="K12">
+        <v>5.1659849999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="15"/>
+      <c r="G13" s="10">
         <v>1.0200000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G14">
+      <c r="H13">
+        <v>8.1334699999999991</v>
+      </c>
+      <c r="I13">
+        <v>7.483469999999997</v>
+      </c>
+      <c r="J13">
+        <v>6.1334700000000026</v>
+      </c>
+      <c r="K13">
+        <v>5.1334700000000026</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="15"/>
+      <c r="G14" s="10">
         <v>1.03E-2</v>
       </c>
+      <c r="H14">
+        <v>8.100954999999999</v>
+      </c>
+      <c r="I14">
+        <v>7.4509550000000004</v>
+      </c>
+      <c r="J14">
+        <v>6.100954999999999</v>
+      </c>
+      <c r="K14">
+        <v>5.100954999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="F7:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
